--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E106A76-26D7-4D3C-AF13-5EE2EB6BD7E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94896819-5909-4CFE-A196-F0A7A1156E6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>5611011632A/CYLINDER BLOCK (F)</t>
+  </si>
+  <si>
+    <t>5611025330A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,6 +1142,104 @@
         <v>208</v>
       </c>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>160</v>
+      </c>
+      <c r="D50">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>160</v>
+      </c>
+      <c r="D51">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>504</v>
+      </c>
+      <c r="D52">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>504</v>
+      </c>
+      <c r="D53">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>360</v>
+      </c>
+      <c r="D54">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>320</v>
+      </c>
+      <c r="D55">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>320</v>
+      </c>
+      <c r="D56">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94896819-5909-4CFE-A196-F0A7A1156E6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE18D249-BDD9-4710-B1A3-37E1253AB0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -88,13 +88,30 @@
   </si>
   <si>
     <t>5611025330A/CYLINDER BLOCK (F) RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>5698002300-0/Steel Bush-Pacific</t>
+  </si>
+  <si>
+    <t>5698002300-2/Steel Bush-Huada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,17 +137,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,6 +474,7 @@
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1240,6 +1261,62 @@
         <v>320</v>
       </c>
     </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>45000</v>
+      </c>
+      <c r="D57" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>55000</v>
+      </c>
+      <c r="D58">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>22000</v>
+      </c>
+      <c r="D59">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>40000</v>
+      </c>
+      <c r="D60">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE18D249-BDD9-4710-B1A3-37E1253AB0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95B8E21E-3A88-4C7F-8464-7B73188EA813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44167</v>
+        <v>44165</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>44168</v>
+        <v>44165</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44169</v>
+        <v>44165</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44170</v>
+        <v>44165</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>44171</v>
+        <v>44165</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>44171</v>
+        <v>44165</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44171</v>
+        <v>44165</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44171</v>
+        <v>44165</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44171</v>
+        <v>44165</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95B8E21E-3A88-4C7F-8464-7B73188EA813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A952C57A-3EED-4D1C-9BDE-0EDD7F8CB6E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -88,30 +88,13 @@
   </si>
   <si>
     <t>5611025330A/CYLINDER BLOCK (F) RAW MATERIAL</t>
-  </si>
-  <si>
-    <t>5698002300-0/Steel Bush-Pacific</t>
-  </si>
-  <si>
-    <t>5698002300-2/Steel Bush-Huada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,20 +120,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,62 +1241,6 @@
         <v>320</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>44165</v>
-      </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57">
-        <v>45000</v>
-      </c>
-      <c r="D57" s="3">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>44165</v>
-      </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58">
-        <v>55000</v>
-      </c>
-      <c r="D58">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>44165</v>
-      </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59">
-        <v>22000</v>
-      </c>
-      <c r="D59">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>44165</v>
-      </c>
-      <c r="B60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60">
-        <v>40000</v>
-      </c>
-      <c r="D60">
-        <v>40000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037755A4-CA8A-44DB-8DA1-3C30FF219D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BF706F-3C72-4076-A635-32690CCD1ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>5611025330A/CYLINDER BLOCK (F) RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>T96493CA/CYLINDER HEAD (R)</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,6 +530,76 @@
         <v>36</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>160</v>
+      </c>
+      <c r="D8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>304</v>
+      </c>
+      <c r="D9">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>300</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>240</v>
+      </c>
+      <c r="D11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>480</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BF706F-3C72-4076-A635-32690CCD1ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F495DE95-61C9-44CE-9079-BF95F85B723A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>T96493CA/CYLINDER HEAD (R)</t>
+  </si>
+  <si>
+    <t>5611012633A/CYLINDER BLOCK (R) RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>Z0009775A/CYLINDER BLOCK (F) RAW MAT`L</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,6 +606,76 @@
         <v>400</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>320</v>
+      </c>
+      <c r="D13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>160</v>
+      </c>
+      <c r="D14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>360</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>320</v>
+      </c>
+      <c r="D16">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+      <c r="D17">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1217774-6104-4C6C-9123-BE4AE8CD649D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73B6769-FEFE-48BB-A022-937C14E0B19A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -1047,10 +1047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,6 +1345,83 @@
         <v>160</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73B6769-FEFE-48BB-A022-937C14E0B19A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF980A-85D3-48FD-AD5A-91E8770692BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Z0009680A/CYLINDER BLOCK (R) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>5611500802A/CYLINDER HEAD (R)</t>
+  </si>
+  <si>
+    <t>elivery notes</t>
   </si>
 </sst>
 </file>
@@ -1047,10 +1053,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,7 +1065,7 @@
     <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44166</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44166</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44166</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44166</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44166</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44166</v>
       </c>
@@ -1136,7 +1142,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44167</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44167</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44167</v>
       </c>
@@ -1168,8 +1174,11 @@
       <c r="C10">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44167</v>
       </c>
@@ -1180,7 +1189,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44167</v>
       </c>
@@ -1191,7 +1200,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44168</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44168</v>
       </c>
@@ -1213,7 +1222,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44168</v>
       </c>
@@ -1224,7 +1233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44168</v>
       </c>
@@ -1419,6 +1428,83 @@
         <v>11</v>
       </c>
       <c r="C33">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
         <v>160</v>
       </c>
     </row>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF980A-85D3-48FD-AD5A-91E8770692BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B19035-D3B2-4013-9715-5D009BF74B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -84,7 +84,13 @@
     <t>5611500802A/CYLINDER HEAD (R)</t>
   </si>
   <si>
-    <t>elivery notes</t>
+    <t>5611011632A/CYLINDER BLOCK (F) RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>5611011732A/CYLINDER BLOCK (R) RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>5611025130A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
 </sst>
 </file>
@@ -1053,10 +1059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,7 +1071,7 @@
     <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44166</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44166</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44166</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44166</v>
       </c>
@@ -1120,7 +1126,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44166</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44166</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44167</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44167</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44167</v>
       </c>
@@ -1174,11 +1180,8 @@
       <c r="C10">
         <v>300</v>
       </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44167</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44167</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44168</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44168</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44168</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44168</v>
       </c>
@@ -1505,6 +1508,116 @@
         <v>11</v>
       </c>
       <c r="C40">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
         <v>160</v>
       </c>
     </row>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B19035-D3B2-4013-9715-5D009BF74B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375CF56-DCBF-4DC6-B859-26646985ECF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>5611025130A/CYLINDER BLOCK (F) RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>5611502001A/CYLINDER HEAD (R)</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1621,6 +1624,83 @@
         <v>160</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375CF56-DCBF-4DC6-B859-26646985ECF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1B48E4-C25E-4A81-A4FB-5D09E779DEEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -109,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,9 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,8 +1071,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,8 +1407,8 @@
       <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C30">
-        <v>304</v>
+      <c r="C30" s="2">
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1411,8 +1418,8 @@
       <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C31">
-        <v>100</v>
+      <c r="C31" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1B48E4-C25E-4A81-A4FB-5D09E779DEEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A142CD0-0E83-42BD-8DAA-A354D6B53271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>5611502001A/CYLINDER HEAD (R)</t>
+  </si>
+  <si>
+    <t>5612605000A/SHELL (R)</t>
+  </si>
+  <si>
+    <t>T909910B/CYLINDER BLOCK (R) RAW MAT`L</t>
   </si>
 </sst>
 </file>
@@ -1069,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1708,6 +1714,116 @@
         <v>80</v>
       </c>
     </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A142CD0-0E83-42BD-8DAA-A354D6B53271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7540200D-C97D-477D-84B6-B54BEBB372AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -1075,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="S55" sqref="S55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1824,6 +1824,72 @@
         <v>20</v>
       </c>
     </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7540200D-C97D-477D-84B6-B54BEBB372AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3F580D-5A9A-4101-AF27-A9EC71DD6C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44178</v>
+        <v>44176</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44179</v>
+        <v>44176</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44180</v>
+        <v>44176</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44181</v>
+        <v>44176</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3F580D-5A9A-4101-AF27-A9EC71DD6C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621382F5-658E-4B3A-8D90-DE8903F20CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,8 +146,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,7 +1102,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>44166</v>
       </c>
       <c r="B2" t="s">
@@ -1110,7 +1113,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>44166</v>
       </c>
       <c r="B3" t="s">
@@ -1121,7 +1124,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>44166</v>
       </c>
       <c r="B4" t="s">
@@ -1132,7 +1135,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>44166</v>
       </c>
       <c r="B5" t="s">
@@ -1143,7 +1146,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>44166</v>
       </c>
       <c r="B6" t="s">
@@ -1154,7 +1157,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>44166</v>
       </c>
       <c r="B7" t="s">
@@ -1165,7 +1168,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>44167</v>
       </c>
       <c r="B8" t="s">
@@ -1176,7 +1179,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>44167</v>
       </c>
       <c r="B9" t="s">
@@ -1187,7 +1190,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>44167</v>
       </c>
       <c r="B10" t="s">
@@ -1198,7 +1201,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>44167</v>
       </c>
       <c r="B11" t="s">
@@ -1209,7 +1212,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>44167</v>
       </c>
       <c r="B12" t="s">
@@ -1220,7 +1223,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>44168</v>
       </c>
       <c r="B13" t="s">
@@ -1231,7 +1234,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>44168</v>
       </c>
       <c r="B14" t="s">
@@ -1242,7 +1245,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>44168</v>
       </c>
       <c r="B15" t="s">
@@ -1253,7 +1256,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>44168</v>
       </c>
       <c r="B16" t="s">
@@ -1264,7 +1267,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>44168</v>
       </c>
       <c r="B17" t="s">
@@ -1275,7 +1278,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>44169</v>
       </c>
       <c r="B18" t="s">
@@ -1286,7 +1289,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>44169</v>
       </c>
       <c r="B19" t="s">
@@ -1297,7 +1300,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>44169</v>
       </c>
       <c r="B20" t="s">
@@ -1308,7 +1311,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>44169</v>
       </c>
       <c r="B21" t="s">
@@ -1319,7 +1322,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>44169</v>
       </c>
       <c r="B22" t="s">
@@ -1330,7 +1333,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>44169</v>
       </c>
       <c r="B23" t="s">
@@ -1341,7 +1344,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>44169</v>
       </c>
       <c r="B24" t="s">
@@ -1352,7 +1355,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>44169</v>
       </c>
       <c r="B25" t="s">
@@ -1363,7 +1366,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>44169</v>
       </c>
       <c r="B26" t="s">
@@ -1374,7 +1377,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>44170</v>
       </c>
       <c r="B27" t="s">
@@ -1385,7 +1388,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>44170</v>
       </c>
       <c r="B28" t="s">
@@ -1396,7 +1399,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>44170</v>
       </c>
       <c r="B29" t="s">
@@ -1407,29 +1410,29 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>44170</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>44170</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>44170</v>
       </c>
       <c r="B32" t="s">
@@ -1440,7 +1443,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>44170</v>
       </c>
       <c r="B33" t="s">
@@ -1451,7 +1454,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>44172</v>
       </c>
       <c r="B34" t="s">
@@ -1462,7 +1465,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>44172</v>
       </c>
       <c r="B35" t="s">
@@ -1473,7 +1476,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>44172</v>
       </c>
       <c r="B36" t="s">
@@ -1484,7 +1487,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>44172</v>
       </c>
       <c r="B37" t="s">
@@ -1495,7 +1498,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>44172</v>
       </c>
       <c r="B38" t="s">
@@ -1506,7 +1509,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>44172</v>
       </c>
       <c r="B39" t="s">
@@ -1517,7 +1520,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>44172</v>
       </c>
       <c r="B40" t="s">
@@ -1528,7 +1531,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>44173</v>
       </c>
       <c r="B41" t="s">
@@ -1539,7 +1542,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>44173</v>
       </c>
       <c r="B42" t="s">
@@ -1550,7 +1553,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>44173</v>
       </c>
       <c r="B43" t="s">
@@ -1561,7 +1564,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>44173</v>
       </c>
       <c r="B44" t="s">
@@ -1572,7 +1575,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>44173</v>
       </c>
       <c r="B45" t="s">
@@ -1583,7 +1586,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>44173</v>
       </c>
       <c r="B46" t="s">
@@ -1594,7 +1597,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>44173</v>
       </c>
       <c r="B47" t="s">
@@ -1605,7 +1608,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>44173</v>
       </c>
       <c r="B48" t="s">
@@ -1616,7 +1619,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>44173</v>
       </c>
       <c r="B49" t="s">
@@ -1627,7 +1630,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>44173</v>
       </c>
       <c r="B50" t="s">
@@ -1638,7 +1641,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>44174</v>
       </c>
       <c r="B51" t="s">
@@ -1649,7 +1652,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>44174</v>
       </c>
       <c r="B52" t="s">
@@ -1660,7 +1663,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>44174</v>
       </c>
       <c r="B53" t="s">
@@ -1671,7 +1674,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>44174</v>
       </c>
       <c r="B54" t="s">
@@ -1682,7 +1685,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>44174</v>
       </c>
       <c r="B55" t="s">
@@ -1693,7 +1696,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>44174</v>
       </c>
       <c r="B56" t="s">
@@ -1704,7 +1707,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>44174</v>
       </c>
       <c r="B57" t="s">
@@ -1715,7 +1718,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>44175</v>
       </c>
       <c r="B58" t="s">
@@ -1726,7 +1729,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>44175</v>
       </c>
       <c r="B59" t="s">
@@ -1737,7 +1740,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>44175</v>
       </c>
       <c r="B60" t="s">
@@ -1748,7 +1751,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>44175</v>
       </c>
       <c r="B61" t="s">
@@ -1759,7 +1762,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>44175</v>
       </c>
       <c r="B62" t="s">
@@ -1770,7 +1773,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>44175</v>
       </c>
       <c r="B63" t="s">
@@ -1781,7 +1784,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>44175</v>
       </c>
       <c r="B64" t="s">
@@ -1792,7 +1795,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>44175</v>
       </c>
       <c r="B65" t="s">
@@ -1803,7 +1806,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>44175</v>
       </c>
       <c r="B66" t="s">
@@ -1814,7 +1817,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>44175</v>
       </c>
       <c r="B67" t="s">
@@ -1825,7 +1828,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>44176</v>
       </c>
       <c r="B68" t="s">
@@ -1836,7 +1839,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>44176</v>
       </c>
       <c r="B69" t="s">
@@ -1847,7 +1850,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>44176</v>
       </c>
       <c r="B70" t="s">
@@ -1858,7 +1861,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>44176</v>
       </c>
       <c r="B71" t="s">
@@ -1869,7 +1872,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>44176</v>
       </c>
       <c r="B72" t="s">
@@ -1880,7 +1883,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>44176</v>
       </c>
       <c r="B73" t="s">
@@ -1888,6 +1891,50 @@
       </c>
       <c r="C73">
         <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621382F5-658E-4B3A-8D90-DE8903F20CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DB2A58-822E-4FC3-96D3-F735A0EC3E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -1078,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1937,6 +1937,94 @@
         <v>160</v>
       </c>
     </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DB2A58-822E-4FC3-96D3-F735A0EC3E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C783525-CFA9-49BE-82BB-8EADE2379B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>T909910B/CYLINDER BLOCK (R) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>5611019231A/CYLINDER BLOCK(F)RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>5611019330A/CYLINDER BLOCK(R)RAW MATERIAL</t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2025,6 +2031,61 @@
         <v>160</v>
       </c>
     </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C783525-CFA9-49BE-82BB-8EADE2379B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD83931-FBAF-4E4A-B337-01635DE83767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>5611019330A/CYLINDER BLOCK(R)RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>T963100A/CYLINDER BLOCK (F) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>T963113A/CYLINDER BLOCK (R) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>Z0021771A/CYLINDER HEAD (F)</t>
   </si>
 </sst>
 </file>
@@ -1084,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2086,6 +2095,193 @@
         <v>64</v>
       </c>
     </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD83931-FBAF-4E4A-B337-01635DE83767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C776C2-647C-44DA-96AC-805B15788B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -1093,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2207,35 +2207,35 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C101">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C102">
-        <v>160</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C103">
-        <v>352</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -2243,10 +2243,10 @@
         <v>44182</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C104">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -2254,10 +2254,10 @@
         <v>44182</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C105">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -2265,10 +2265,10 @@
         <v>44182</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C106">
-        <v>96</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -2276,9 +2276,42 @@
         <v>44182</v>
       </c>
       <c r="B107" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B110" t="s">
         <v>9</v>
       </c>
-      <c r="C107">
+      <c r="C110">
         <v>320</v>
       </c>
     </row>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C776C2-647C-44DA-96AC-805B15788B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81271F22-5E79-4BA2-961C-C1D4E939238C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81271F22-5E79-4BA2-961C-C1D4E939238C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86544724-3A31-45C6-BB1F-EB5A7B00F910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$107</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -192,7 +196,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -253,7 +257,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -314,7 +318,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -375,7 +379,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -436,7 +440,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -497,7 +501,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -558,7 +562,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -619,7 +623,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -680,7 +684,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -741,7 +745,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1092,11 +1096,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C110"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44166</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44166</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44166</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44166</v>
       </c>
@@ -1160,7 +1164,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44166</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44166</v>
       </c>
@@ -1182,7 +1186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44167</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44167</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44167</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44167</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44167</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44168</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44168</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44168</v>
       </c>
@@ -1270,7 +1274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44168</v>
       </c>
@@ -1281,7 +1285,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44168</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44169</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44169</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44169</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44169</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44169</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44169</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44169</v>
       </c>
@@ -1369,7 +1373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44169</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44169</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44170</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44170</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44170</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44170</v>
       </c>
@@ -1435,7 +1439,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44170</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44170</v>
       </c>
@@ -1457,7 +1461,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44170</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44172</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44172</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44172</v>
       </c>
@@ -1501,7 +1505,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44172</v>
       </c>
@@ -1512,7 +1516,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44172</v>
       </c>
@@ -1523,7 +1527,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44172</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44172</v>
       </c>
@@ -1545,7 +1549,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44173</v>
       </c>
@@ -1556,7 +1560,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44173</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44173</v>
       </c>
@@ -1578,7 +1582,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44173</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44173</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44173</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44173</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44173</v>
       </c>
@@ -1633,7 +1637,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44173</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44173</v>
       </c>
@@ -1655,7 +1659,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44174</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44174</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44174</v>
       </c>
@@ -1688,7 +1692,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44174</v>
       </c>
@@ -1699,7 +1703,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44174</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>44174</v>
       </c>
@@ -1721,7 +1725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>44174</v>
       </c>
@@ -1732,7 +1736,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44175</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44175</v>
       </c>
@@ -1754,7 +1758,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>44175</v>
       </c>
@@ -1765,7 +1769,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44175</v>
       </c>
@@ -1776,7 +1780,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44175</v>
       </c>
@@ -1787,7 +1791,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>44175</v>
       </c>
@@ -1798,7 +1802,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44175</v>
       </c>
@@ -1809,7 +1813,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44175</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44175</v>
       </c>
@@ -1831,7 +1835,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44175</v>
       </c>
@@ -1842,7 +1846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44176</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44176</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44176</v>
       </c>
@@ -1875,7 +1879,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44176</v>
       </c>
@@ -1886,7 +1890,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44176</v>
       </c>
@@ -1897,7 +1901,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44176</v>
       </c>
@@ -1908,7 +1912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44177</v>
       </c>
@@ -1919,7 +1923,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>44177</v>
       </c>
@@ -1930,7 +1934,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44177</v>
       </c>
@@ -1941,7 +1945,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44177</v>
       </c>
@@ -1952,7 +1956,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44179</v>
       </c>
@@ -1963,7 +1967,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44179</v>
       </c>
@@ -1974,7 +1978,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44179</v>
       </c>
@@ -1985,7 +1989,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44179</v>
       </c>
@@ -1996,7 +2000,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44179</v>
       </c>
@@ -2007,7 +2011,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44179</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44179</v>
       </c>
@@ -2029,7 +2033,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44179</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44180</v>
       </c>
@@ -2051,7 +2055,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44180</v>
       </c>
@@ -2062,7 +2066,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44180</v>
       </c>
@@ -2073,7 +2077,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44180</v>
       </c>
@@ -2084,7 +2088,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44180</v>
       </c>
@@ -2111,10 +2115,10 @@
         <v>44181</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C92">
-        <v>144</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -2122,10 +2126,10 @@
         <v>44181</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C93">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2133,10 +2137,10 @@
         <v>44181</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>100</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2144,10 +2148,10 @@
         <v>44181</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C95">
-        <v>256</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -2155,10 +2159,10 @@
         <v>44181</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2166,10 +2170,10 @@
         <v>44181</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -2177,10 +2181,10 @@
         <v>44181</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C98">
-        <v>300</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -2188,10 +2192,10 @@
         <v>44181</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C99">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2199,123 +2203,97 @@
         <v>44181</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C100">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C101">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C102">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C103">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>44182</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C104">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>44182</v>
       </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C105">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>44182</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C106">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>44182</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C107">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
-        <v>44182</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
-        <v>44182</v>
-      </c>
-      <c r="B109" t="s">
-        <v>25</v>
-      </c>
-      <c r="C109">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
-        <v>44182</v>
-      </c>
-      <c r="B110" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110">
         <v>320</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2020" month="12" day="16" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86544724-3A31-45C6-BB1F-EB5A7B00F910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A67814D-2503-471F-80C5-D00E0B5E54E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -196,7 +196,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -257,7 +257,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -318,7 +318,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -379,7 +379,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -440,7 +440,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -501,7 +501,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -562,7 +562,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -623,7 +623,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -684,7 +684,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -745,7 +745,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1096,11 +1096,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:C107"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1120,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44166</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44166</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44166</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44166</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44166</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44166</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44167</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44167</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44167</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44167</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44167</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44168</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44168</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44168</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44168</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44168</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44169</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44169</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44169</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44169</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44169</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44169</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44169</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44169</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44169</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44170</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44170</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44170</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44170</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44170</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44170</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44170</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44172</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44172</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44172</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44172</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44172</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44172</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44172</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44173</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44173</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44173</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44173</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44173</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44173</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44173</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44173</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44173</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44173</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44174</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44174</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44174</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44174</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44174</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>44174</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>44174</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44175</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44175</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>44175</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44175</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44175</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>44175</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44175</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44175</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44175</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44175</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44176</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44176</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44176</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44176</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44176</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44176</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44177</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>44177</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44177</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44177</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44179</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44179</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44179</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44179</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44179</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44179</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44179</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44179</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44180</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44180</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44180</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44180</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44180</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>44182</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>44182</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>44182</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>44182</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>44182</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>44182</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>44182</v>
       </c>
@@ -2286,14 +2286,96 @@
         <v>320</v>
       </c>
     </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B115" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}">
-    <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2020" month="12" day="16" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A67814D-2503-471F-80C5-D00E0B5E54E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359F9FCA-E75C-4EF5-966C-0CF074D7C33A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -1097,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2374,6 +2373,204 @@
         <v>140</v>
       </c>
     </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B121" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B127" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B133" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359F9FCA-E75C-4EF5-966C-0CF074D7C33A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C10416C-01C1-4977-986E-DB094D77D123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -1096,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="K124" sqref="K124"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="P134" sqref="P134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2571,6 +2571,94 @@
         <v>200</v>
       </c>
     </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B136" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B141" t="s">
+        <v>26</v>
+      </c>
+      <c r="C141">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C10416C-01C1-4977-986E-DB094D77D123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5477EBFD-E800-484E-9A96-6F564445530A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -1096,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="P134" sqref="P134"/>
+      <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2659,6 +2659,105 @@
         <v>220</v>
       </c>
     </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B142" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B150" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5477EBFD-E800-484E-9A96-6F564445530A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BD4D1D-6781-4DDA-BDBE-749FFF2C836E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -1096,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="H132" sqref="H132"/>
+    <sheetView tabSelected="1" topLeftCell="C136" workbookViewId="0">
+      <selection activeCell="S151" sqref="S151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2758,6 +2758,116 @@
         <v>60</v>
       </c>
     </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B154" t="s">
+        <v>24</v>
+      </c>
+      <c r="C154">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B155" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B160" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deli.xlsx
+++ b/Deli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BD4D1D-6781-4DDA-BDBE-749FFF2C836E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5CA9D7-A5E5-4D1C-947E-93F1D9F8DDD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -1096,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C136" workbookViewId="0">
-      <selection activeCell="S151" sqref="S151"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2868,6 +2868,116 @@
         <v>140</v>
       </c>
     </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B163" t="s">
+        <v>23</v>
+      </c>
+      <c r="C163">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B170" t="s">
+        <v>26</v>
+      </c>
+      <c r="C170">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
